--- a/codingtest_review_table.xlsx
+++ b/codingtest_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{221B1204-1CE6-4838-98D2-C7CCBA9AE4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1D5C8-C809-4A8F-9719-B8A76221FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="1065" yWindow="1005" windowWidth="21600" windowHeight="11835" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -367,17 +367,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +716,7 @@
   <dimension ref="A2:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,25 +736,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="10"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -812,17 +812,19 @@
       <c r="F4" s="4">
         <v>45391</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4">
+        <v>45405</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="O4" s="3" t="str">
-        <f>N10</f>
+        <f t="shared" ref="O4:O15" si="0">N10</f>
         <v>구현</v>
       </c>
       <c r="P4" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O4)</f>
+        <f t="shared" ref="P4:P15" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
         <v>10</v>
       </c>
     </row>
@@ -848,11 +850,11 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="O5" s="5" t="str">
-        <f>N11</f>
+        <f t="shared" si="0"/>
         <v>탐색</v>
       </c>
       <c r="P5" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -878,11 +880,11 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="O6" s="5" t="str">
-        <f>N12</f>
+        <f t="shared" si="0"/>
         <v>DFS/BFS</v>
       </c>
       <c r="P6" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -908,11 +910,11 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="O7" s="5" t="str">
-        <f>N13</f>
+        <f t="shared" si="0"/>
         <v>DP</v>
       </c>
       <c r="P7" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -938,11 +940,11 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="O8" s="5" t="str">
-        <f>N14</f>
+        <f t="shared" si="0"/>
         <v>그리디</v>
       </c>
       <c r="P8" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -968,11 +970,11 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="O9" s="5" t="str">
-        <f>N15</f>
+        <f t="shared" si="0"/>
         <v>스택</v>
       </c>
       <c r="P9" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1004,11 +1006,11 @@
         <v>14</v>
       </c>
       <c r="O10" s="5" t="str">
-        <f>N16</f>
+        <f t="shared" si="0"/>
         <v>큐</v>
       </c>
       <c r="P10" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1040,11 +1042,11 @@
         <v>15</v>
       </c>
       <c r="O11" s="5" t="str">
-        <f>N17</f>
+        <f t="shared" si="0"/>
         <v>해시</v>
       </c>
       <c r="P11" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1074,11 +1076,11 @@
         <v>18</v>
       </c>
       <c r="O12" s="5" t="str">
-        <f>N18</f>
+        <f t="shared" si="0"/>
         <v>힙</v>
       </c>
       <c r="P12" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1108,11 +1110,11 @@
         <v>16</v>
       </c>
       <c r="O13" s="5" t="str">
-        <f>N19</f>
+        <f t="shared" si="0"/>
         <v>트리</v>
       </c>
       <c r="P13" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1142,11 +1144,11 @@
         <v>19</v>
       </c>
       <c r="O14" s="5" t="str">
-        <f>N20</f>
+        <f t="shared" si="0"/>
         <v>문자열</v>
       </c>
       <c r="P14" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1168,11 +1170,11 @@
         <v>20</v>
       </c>
       <c r="O15" s="5" t="str">
-        <f>N21</f>
+        <f t="shared" si="0"/>
         <v>파싱</v>
       </c>
       <c r="P15" s="3">
-        <f>COUNTIF($E$3:$E$1048576, $O15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/codingtest_review_table.xlsx
+++ b/codingtest_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1D5C8-C809-4A8F-9719-B8A76221FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9053018-0D7A-4479-875A-070947649A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1005" windowWidth="21600" windowHeight="11835" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="7485" yWindow="4080" windowWidth="21600" windowHeight="11835" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>풀이 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 정사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 야구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +724,7 @@
   <dimension ref="A2:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -825,7 +833,7 @@
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P15" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -1156,10 +1164,18 @@
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="5">
+        <v>1051</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45407</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1182,10 +1198,18 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="5">
+        <v>2503</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45407</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -3471,7 +3495,7 @@
     <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E202" xr:uid="{BB2CE533-B93D-4CC2-9A5E-6425EE831AD0}">
       <formula1>$N$10:$N$21</formula1>
     </dataValidation>

--- a/codingtest_review_table.xlsx
+++ b/codingtest_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9053018-0D7A-4479-875A-070947649A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B61DB6-5CE9-41A6-B152-AB22886C4208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="4080" windowWidth="21600" windowHeight="11835" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,24 @@
   <si>
     <t>숫자 야구</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 줄로 서기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
+  </si>
+  <si>
+    <t>1, 2, 3 더하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -724,7 +742,7 @@
   <dimension ref="A2:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,7 +851,7 @@
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P15" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -923,7 +941,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -953,7 +971,7 @@
       </c>
       <c r="P8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -1224,10 +1242,18 @@
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="5">
+        <v>1138</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45411</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1242,10 +1268,18 @@
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="5">
+        <v>11399</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6">
+        <v>45412</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1260,10 +1294,18 @@
       <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="5">
+        <v>9095</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45412</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>

--- a/codingtest_review_table.xlsx
+++ b/codingtest_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B61DB6-5CE9-41A6-B152-AB22886C4208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1931F9D5-557F-4641-829F-6890B5F9B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,14 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>트럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨 배달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -741,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C3EF0-06F6-446E-AA2A-F9EE37608F85}">
   <dimension ref="A2:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -851,7 +859,7 @@
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P15" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -1320,10 +1328,18 @@
       <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="5">
+        <v>13335</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45414</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1338,10 +1354,18 @@
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="5">
+        <v>15686</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45414</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>

--- a/codingtest_review_table.xlsx
+++ b/codingtest_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1931F9D5-557F-4641-829F-6890B5F9B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A42A9B-A178-441C-A09B-4255AF0D8D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="53">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>치킨 배달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +754,7 @@
   <dimension ref="A2:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -949,7 +953,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1380,10 +1384,18 @@
       <c r="B22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="5">
+        <v>1149</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45415</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
